--- a/data/pca/factorExposure/factorExposure_2015-12-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01611599927529478</v>
+        <v>0.01645651789364082</v>
       </c>
       <c r="C2">
-        <v>0.03280693540727249</v>
+        <v>-0.03416293062036738</v>
       </c>
       <c r="D2">
-        <v>0.09712807931162712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1233668694356728</v>
+      </c>
+      <c r="E2">
+        <v>-0.06338222476535567</v>
+      </c>
+      <c r="F2">
+        <v>-0.02309996132108634</v>
+      </c>
+      <c r="G2">
+        <v>-0.07164643566061281</v>
+      </c>
+      <c r="H2">
+        <v>-0.08476449310525208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01678075385113208</v>
+        <v>0.009952596134753305</v>
       </c>
       <c r="C3">
-        <v>0.05280954528953075</v>
+        <v>-0.03528012951948049</v>
       </c>
       <c r="D3">
-        <v>0.1368230466918193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07898253286855728</v>
+      </c>
+      <c r="E3">
+        <v>-0.05439077437932797</v>
+      </c>
+      <c r="F3">
+        <v>-0.033052771805191</v>
+      </c>
+      <c r="G3">
+        <v>-0.08331293363287459</v>
+      </c>
+      <c r="H3">
+        <v>-0.04005513086707937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05152961938364687</v>
+        <v>0.05407231484976458</v>
       </c>
       <c r="C4">
-        <v>0.03622839948265968</v>
+        <v>-0.06351940819791621</v>
       </c>
       <c r="D4">
-        <v>0.1303972672390423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1438417099562599</v>
+      </c>
+      <c r="E4">
+        <v>-0.04826397989581172</v>
+      </c>
+      <c r="F4">
+        <v>-0.02197237478240319</v>
+      </c>
+      <c r="G4">
+        <v>0.02848388373939765</v>
+      </c>
+      <c r="H4">
+        <v>0.03600028241322343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04304849593916545</v>
+        <v>0.03956713061636143</v>
       </c>
       <c r="C6">
-        <v>0.004863848707832052</v>
+        <v>-0.0257052089936848</v>
       </c>
       <c r="D6">
-        <v>0.1367822636363939</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1336486974530913</v>
+      </c>
+      <c r="E6">
+        <v>-0.02710660266028276</v>
+      </c>
+      <c r="F6">
+        <v>-0.01545458277863161</v>
+      </c>
+      <c r="G6">
+        <v>-0.01525296472641809</v>
+      </c>
+      <c r="H6">
+        <v>-0.007718349696583034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02091217947259999</v>
+        <v>0.01505577581104087</v>
       </c>
       <c r="C7">
-        <v>0.01397929870660509</v>
+        <v>-0.02939138840647883</v>
       </c>
       <c r="D7">
-        <v>0.09571297365542408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0949337461064102</v>
+      </c>
+      <c r="E7">
+        <v>-0.02926135153646786</v>
+      </c>
+      <c r="F7">
+        <v>-0.01777847114010499</v>
+      </c>
+      <c r="G7">
+        <v>0.01228372847546513</v>
+      </c>
+      <c r="H7">
+        <v>-0.1030141135208021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.007914776488895915</v>
+        <v>0.005968159276925316</v>
       </c>
       <c r="C8">
-        <v>0.02789154994481201</v>
+        <v>-0.03751948535015708</v>
       </c>
       <c r="D8">
-        <v>0.05688150333889128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07445739023873051</v>
+      </c>
+      <c r="E8">
+        <v>-0.03501156203852317</v>
+      </c>
+      <c r="F8">
+        <v>-0.04117479648832824</v>
+      </c>
+      <c r="G8">
+        <v>-0.01105197872632488</v>
+      </c>
+      <c r="H8">
+        <v>-0.04250346515349267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04231575900253862</v>
+        <v>0.04248047749774383</v>
       </c>
       <c r="C9">
-        <v>0.03554587420152398</v>
+        <v>-0.05848896066251667</v>
       </c>
       <c r="D9">
-        <v>0.1146603793437197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.122051296969854</v>
+      </c>
+      <c r="E9">
+        <v>-0.03359238070902625</v>
+      </c>
+      <c r="F9">
+        <v>-0.003527034289201422</v>
+      </c>
+      <c r="G9">
+        <v>0.02342037324421026</v>
+      </c>
+      <c r="H9">
+        <v>0.0008540256817918958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09469990692294664</v>
+        <v>0.136638635716251</v>
       </c>
       <c r="C10">
-        <v>-0.1954489112922657</v>
+        <v>0.188651465297649</v>
       </c>
       <c r="D10">
-        <v>0.001667094792942743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0006285770260260823</v>
+      </c>
+      <c r="E10">
+        <v>-0.04688241568277528</v>
+      </c>
+      <c r="F10">
+        <v>-0.02100486253392997</v>
+      </c>
+      <c r="G10">
+        <v>0.03926007333221734</v>
+      </c>
+      <c r="H10">
+        <v>-4.970942855880281e-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03384547364173958</v>
+        <v>0.02821546737029139</v>
       </c>
       <c r="C11">
-        <v>0.03795810785688798</v>
+        <v>-0.04288224696883573</v>
       </c>
       <c r="D11">
-        <v>0.05936724478585381</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05767006021758773</v>
+      </c>
+      <c r="E11">
+        <v>0.005341290467444003</v>
+      </c>
+      <c r="F11">
+        <v>-0.002099049398579092</v>
+      </c>
+      <c r="G11">
+        <v>0.003154891985823715</v>
+      </c>
+      <c r="H11">
+        <v>-0.04569404468515677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03875333053037833</v>
+        <v>0.03378468953945156</v>
       </c>
       <c r="C12">
-        <v>0.04040852792443038</v>
+        <v>-0.04533987371881937</v>
       </c>
       <c r="D12">
-        <v>0.06251174452374146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05798606002711458</v>
+      </c>
+      <c r="E12">
+        <v>-0.002668247105039283</v>
+      </c>
+      <c r="F12">
+        <v>0.004196213649947396</v>
+      </c>
+      <c r="G12">
+        <v>0.006797893738587856</v>
+      </c>
+      <c r="H12">
+        <v>-0.05878250704664727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01828435188254635</v>
+        <v>0.01854384311868223</v>
       </c>
       <c r="C13">
-        <v>0.02543990811888418</v>
+        <v>-0.03719132944703574</v>
       </c>
       <c r="D13">
-        <v>0.1339318541996616</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1492764769667417</v>
+      </c>
+      <c r="E13">
+        <v>-0.05080420005614318</v>
+      </c>
+      <c r="F13">
+        <v>-0.02997867682438071</v>
+      </c>
+      <c r="G13">
+        <v>-0.008095435003568156</v>
+      </c>
+      <c r="H13">
+        <v>-0.09173758132537058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.009656223947589497</v>
+        <v>0.006888027796976999</v>
       </c>
       <c r="C14">
-        <v>0.02048680380632701</v>
+        <v>-0.02417715364658126</v>
       </c>
       <c r="D14">
-        <v>0.08316323879440883</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08506381364233188</v>
+      </c>
+      <c r="E14">
+        <v>-0.03327719828126421</v>
+      </c>
+      <c r="F14">
+        <v>0.006868689568453711</v>
+      </c>
+      <c r="G14">
+        <v>-0.00583523537629372</v>
+      </c>
+      <c r="H14">
+        <v>-0.0926749880501582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.00125866964760757</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.009674257193063102</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03061551428897198</v>
+      </c>
+      <c r="E15">
+        <v>-0.005716460305762565</v>
+      </c>
+      <c r="F15">
+        <v>0.001461340992329039</v>
+      </c>
+      <c r="G15">
+        <v>-0.01015755992667579</v>
+      </c>
+      <c r="H15">
+        <v>-0.008673886061885759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0353978797115708</v>
+        <v>0.02924755383696506</v>
       </c>
       <c r="C16">
-        <v>0.03866381553900219</v>
+        <v>-0.04305632907551263</v>
       </c>
       <c r="D16">
-        <v>0.06947344212934591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06191656640201171</v>
+      </c>
+      <c r="E16">
+        <v>-0.007222328837668392</v>
+      </c>
+      <c r="F16">
+        <v>0.007121648532227523</v>
+      </c>
+      <c r="G16">
+        <v>-0.0003298148134666354</v>
+      </c>
+      <c r="H16">
+        <v>-0.0541183315427494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.0113631133770611</v>
+        <v>0.007358301703457244</v>
       </c>
       <c r="C19">
-        <v>0.02267254767541796</v>
+        <v>-0.02094081765776008</v>
       </c>
       <c r="D19">
-        <v>0.1702531293101239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.12869471055981</v>
+      </c>
+      <c r="E19">
+        <v>-0.06475736094907195</v>
+      </c>
+      <c r="F19">
+        <v>0.01337573614567802</v>
+      </c>
+      <c r="G19">
+        <v>-0.02140927862694628</v>
+      </c>
+      <c r="H19">
+        <v>-0.06164334649113193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.02034410263378621</v>
+        <v>0.01616253101194402</v>
       </c>
       <c r="C20">
-        <v>0.02052508753206127</v>
+        <v>-0.03172136647268169</v>
       </c>
       <c r="D20">
-        <v>0.09306973146991757</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1005115035648567</v>
+      </c>
+      <c r="E20">
+        <v>-0.051298984584752</v>
+      </c>
+      <c r="F20">
+        <v>0.001754762559753902</v>
+      </c>
+      <c r="G20">
+        <v>-0.0001676942858204782</v>
+      </c>
+      <c r="H20">
+        <v>-0.05143944997572259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01591066637855117</v>
+        <v>0.01413249827269617</v>
       </c>
       <c r="C21">
-        <v>0.02593684211034345</v>
+        <v>-0.03661774636385707</v>
       </c>
       <c r="D21">
-        <v>0.1341000663697829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1437365498524808</v>
+      </c>
+      <c r="E21">
+        <v>-0.08853975025840378</v>
+      </c>
+      <c r="F21">
+        <v>0.0004658692439269184</v>
+      </c>
+      <c r="G21">
+        <v>0.03043095357371758</v>
+      </c>
+      <c r="H21">
+        <v>-0.1055222408644915</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.006297678021088726</v>
+        <v>0.005460167423901745</v>
       </c>
       <c r="C22">
-        <v>0.02865622320362499</v>
+        <v>-0.03976013159427699</v>
       </c>
       <c r="D22">
-        <v>0.08308382594968476</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1392701675286926</v>
+      </c>
+      <c r="E22">
+        <v>-0.020642837034151</v>
+      </c>
+      <c r="F22">
+        <v>-0.08948945227134772</v>
+      </c>
+      <c r="G22">
+        <v>-0.076785992809091</v>
+      </c>
+      <c r="H22">
+        <v>0.05054622033495809</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.006392284541652704</v>
+        <v>0.005560788849624592</v>
       </c>
       <c r="C23">
-        <v>0.02858597479131075</v>
+        <v>-0.04021378148429702</v>
       </c>
       <c r="D23">
-        <v>0.08248595627204883</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1387214006845415</v>
+      </c>
+      <c r="E23">
+        <v>-0.020942724190312</v>
+      </c>
+      <c r="F23">
+        <v>-0.08945709390308013</v>
+      </c>
+      <c r="G23">
+        <v>-0.07586762959731219</v>
+      </c>
+      <c r="H23">
+        <v>0.05081946349072117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03513666516008158</v>
+        <v>0.03080538079961511</v>
       </c>
       <c r="C24">
-        <v>0.04508648245790632</v>
+        <v>-0.05449940474695526</v>
       </c>
       <c r="D24">
-        <v>0.06984519478864559</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06636671100991925</v>
+      </c>
+      <c r="E24">
+        <v>-0.01108317466465548</v>
+      </c>
+      <c r="F24">
+        <v>0.004115924386752563</v>
+      </c>
+      <c r="G24">
+        <v>0.0108590566159019</v>
+      </c>
+      <c r="H24">
+        <v>-0.06413550442868281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04077162074470596</v>
+        <v>0.03557476916366726</v>
       </c>
       <c r="C25">
-        <v>0.04716099421160838</v>
+        <v>-0.05236518131004218</v>
       </c>
       <c r="D25">
-        <v>0.06909488451645873</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0625950238397746</v>
+      </c>
+      <c r="E25">
+        <v>-0.01179799119937392</v>
+      </c>
+      <c r="F25">
+        <v>-0.002278666784371444</v>
+      </c>
+      <c r="G25">
+        <v>0.01426138474823603</v>
+      </c>
+      <c r="H25">
+        <v>-0.053009224537323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02044426665005673</v>
+        <v>0.01832489461716376</v>
       </c>
       <c r="C26">
-        <v>0.006286887113781106</v>
+        <v>-0.01782422392376089</v>
       </c>
       <c r="D26">
-        <v>0.05315575560885277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06406416602507632</v>
+      </c>
+      <c r="E26">
+        <v>-0.024844452370794</v>
+      </c>
+      <c r="F26">
+        <v>-0.002932816707760014</v>
+      </c>
+      <c r="G26">
+        <v>-0.002091305137680596</v>
+      </c>
+      <c r="H26">
+        <v>-0.05760020133386166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1409848403693253</v>
+        <v>0.194054758158781</v>
       </c>
       <c r="C28">
-        <v>-0.2757343551678196</v>
+        <v>0.255167773527785</v>
       </c>
       <c r="D28">
-        <v>-0.03246971309990365</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01317754844918561</v>
+      </c>
+      <c r="E28">
+        <v>-0.07336592279536319</v>
+      </c>
+      <c r="F28">
+        <v>-0.007427144040471599</v>
+      </c>
+      <c r="G28">
+        <v>0.07237490834449684</v>
+      </c>
+      <c r="H28">
+        <v>-0.00875028188485971</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.005720015106473095</v>
+        <v>0.005959243365166592</v>
       </c>
       <c r="C29">
-        <v>0.01887937576784334</v>
+        <v>-0.02245623376288367</v>
       </c>
       <c r="D29">
-        <v>0.06909135123777893</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.08166914936080974</v>
+      </c>
+      <c r="E29">
+        <v>-0.03219772205933061</v>
+      </c>
+      <c r="F29">
+        <v>-0.005313968852607731</v>
+      </c>
+      <c r="G29">
+        <v>0.01253741518032455</v>
+      </c>
+      <c r="H29">
+        <v>-0.09600543570758438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04008928379430584</v>
+        <v>0.04207505428000133</v>
       </c>
       <c r="C30">
-        <v>0.0351989722440471</v>
+        <v>-0.05919353771878316</v>
       </c>
       <c r="D30">
-        <v>0.1667115246762101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1805362674730633</v>
+      </c>
+      <c r="E30">
+        <v>-0.0160133309223296</v>
+      </c>
+      <c r="F30">
+        <v>-0.005199028660203661</v>
+      </c>
+      <c r="G30">
+        <v>-0.03816400190642406</v>
+      </c>
+      <c r="H30">
+        <v>0.006866590768888586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06953605479422215</v>
+        <v>0.05673368382059578</v>
       </c>
       <c r="C31">
-        <v>0.04846357081828851</v>
+        <v>-0.07090943647842643</v>
       </c>
       <c r="D31">
-        <v>0.06793476703120283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05497020119866378</v>
+      </c>
+      <c r="E31">
+        <v>-0.02207134925541634</v>
+      </c>
+      <c r="F31">
+        <v>-0.03671937777538227</v>
+      </c>
+      <c r="G31">
+        <v>0.01711358891589487</v>
+      </c>
+      <c r="H31">
+        <v>-0.03401479746714564</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.004344929985085506</v>
+        <v>0.01208801157898786</v>
       </c>
       <c r="C32">
-        <v>0.005783079843095321</v>
+        <v>-0.01819687395377502</v>
       </c>
       <c r="D32">
-        <v>0.06795787911142685</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1030368013231491</v>
+      </c>
+      <c r="E32">
+        <v>-0.09275320046590896</v>
+      </c>
+      <c r="F32">
+        <v>-0.01603755106206823</v>
+      </c>
+      <c r="G32">
+        <v>0.02844779882397822</v>
+      </c>
+      <c r="H32">
+        <v>-0.08114341833429903</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02645999895963541</v>
+        <v>0.02408391528063011</v>
       </c>
       <c r="C33">
-        <v>0.02119206775077722</v>
+        <v>-0.04115514131512071</v>
       </c>
       <c r="D33">
-        <v>0.1368168374092174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1337748622804276</v>
+      </c>
+      <c r="E33">
+        <v>-0.0408075619826662</v>
+      </c>
+      <c r="F33">
+        <v>-0.01596485832374646</v>
+      </c>
+      <c r="G33">
+        <v>-0.001136809784554296</v>
+      </c>
+      <c r="H33">
+        <v>-0.05990342589170081</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03401011085688768</v>
+        <v>0.02695313669081858</v>
       </c>
       <c r="C34">
-        <v>0.05870665445789412</v>
+        <v>-0.0599685965017905</v>
       </c>
       <c r="D34">
-        <v>0.06850656312303521</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05731376922602744</v>
+      </c>
+      <c r="E34">
+        <v>0.004674751041051676</v>
+      </c>
+      <c r="F34">
+        <v>0.009817021516199084</v>
+      </c>
+      <c r="G34">
+        <v>0.008931346620677558</v>
+      </c>
+      <c r="H34">
+        <v>-0.07452489113208444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0005128189521112432</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0006174563017150089</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.003896441065544365</v>
+      </c>
+      <c r="E35">
+        <v>-3.678590461426262e-05</v>
+      </c>
+      <c r="F35">
+        <v>-0.0003345147751801466</v>
+      </c>
+      <c r="G35">
+        <v>-0.00113507788070773</v>
+      </c>
+      <c r="H35">
+        <v>-0.002526401567838956</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02011918560536475</v>
+        <v>0.01841833505374722</v>
       </c>
       <c r="C36">
-        <v>-0.0001128687489517052</v>
+        <v>-0.01386896619975287</v>
       </c>
       <c r="D36">
-        <v>0.07553017222443791</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07886830243068271</v>
+      </c>
+      <c r="E36">
+        <v>-0.03354700565308175</v>
+      </c>
+      <c r="F36">
+        <v>0.001496837378650463</v>
+      </c>
+      <c r="G36">
+        <v>0.009724875914288935</v>
+      </c>
+      <c r="H36">
+        <v>-0.0476921728253456</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02569313776977283</v>
+        <v>0.02100473424827761</v>
       </c>
       <c r="C38">
-        <v>0.01909568935407303</v>
+        <v>-0.0223416350216442</v>
       </c>
       <c r="D38">
-        <v>0.05370587586988897</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.05777133136840979</v>
+      </c>
+      <c r="E38">
+        <v>-0.03699212917841003</v>
+      </c>
+      <c r="F38">
+        <v>0.004730037704735623</v>
+      </c>
+      <c r="G38">
+        <v>-0.03612235589625672</v>
+      </c>
+      <c r="H38">
+        <v>-0.0388954030362083</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04017220457447247</v>
+        <v>0.0363392051024554</v>
       </c>
       <c r="C39">
-        <v>0.0509341937884534</v>
+        <v>-0.06307649674347483</v>
       </c>
       <c r="D39">
-        <v>0.09286712572972815</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1057315941180539</v>
+      </c>
+      <c r="E39">
+        <v>-0.006782702744366736</v>
+      </c>
+      <c r="F39">
+        <v>0.02670369897812382</v>
+      </c>
+      <c r="G39">
+        <v>-0.004421559033760041</v>
+      </c>
+      <c r="H39">
+        <v>-0.07577955412788141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01794609188855859</v>
+        <v>0.01410839316044844</v>
       </c>
       <c r="C40">
-        <v>0.04430561696362023</v>
+        <v>-0.03721802095057932</v>
       </c>
       <c r="D40">
-        <v>0.08080994922142989</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08706458090624271</v>
+      </c>
+      <c r="E40">
+        <v>-0.06329166286766197</v>
+      </c>
+      <c r="F40">
+        <v>-0.06296245349553842</v>
+      </c>
+      <c r="G40">
+        <v>-0.04583228217565691</v>
+      </c>
+      <c r="H40">
+        <v>-0.1635225012851973</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02417436976582221</v>
+        <v>0.0226153706430844</v>
       </c>
       <c r="C41">
-        <v>-0.009309031601262858</v>
+        <v>-0.007659966167063815</v>
       </c>
       <c r="D41">
-        <v>0.07063070219405397</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.056495666057741</v>
+      </c>
+      <c r="E41">
+        <v>-0.05043390656546987</v>
+      </c>
+      <c r="F41">
+        <v>-0.003926374150915455</v>
+      </c>
+      <c r="G41">
+        <v>-0.00788259509490268</v>
+      </c>
+      <c r="H41">
+        <v>-0.04789171303103443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03244148977449875</v>
+        <v>0.02446417973023109</v>
       </c>
       <c r="C43">
-        <v>0.001796096076667553</v>
+        <v>-0.01828815799376979</v>
       </c>
       <c r="D43">
-        <v>0.1091309827163928</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08702574543183282</v>
+      </c>
+      <c r="E43">
+        <v>-0.03104617980862637</v>
+      </c>
+      <c r="F43">
+        <v>-0.005350521311209665</v>
+      </c>
+      <c r="G43">
+        <v>-0.009277736189279547</v>
+      </c>
+      <c r="H43">
+        <v>-0.06563375710766074</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01241993580522183</v>
+        <v>0.0165243788762481</v>
       </c>
       <c r="C44">
-        <v>0.03926757622309913</v>
+        <v>-0.04088613457954079</v>
       </c>
       <c r="D44">
-        <v>0.09044982595009771</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1012530512660648</v>
+      </c>
+      <c r="E44">
+        <v>-0.07053793388737871</v>
+      </c>
+      <c r="F44">
+        <v>-0.007015246943092804</v>
+      </c>
+      <c r="G44">
+        <v>0.004626289380189462</v>
+      </c>
+      <c r="H44">
+        <v>-0.07084579458265305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01947551254802234</v>
+        <v>0.01608119876274633</v>
       </c>
       <c r="C46">
-        <v>0.01809873184511871</v>
+        <v>-0.02785945447178442</v>
       </c>
       <c r="D46">
-        <v>0.07921778368112561</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0899265900199851</v>
+      </c>
+      <c r="E46">
+        <v>-0.03814510382697035</v>
+      </c>
+      <c r="F46">
+        <v>0.01603706730687202</v>
+      </c>
+      <c r="G46">
+        <v>0.02038466967228185</v>
+      </c>
+      <c r="H46">
+        <v>-0.09883013024242171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09583251768719504</v>
+        <v>0.08517595178796546</v>
       </c>
       <c r="C47">
-        <v>0.06599517382494194</v>
+        <v>-0.08848887439380515</v>
       </c>
       <c r="D47">
-        <v>0.04188635905047296</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03336957487270827</v>
+      </c>
+      <c r="E47">
+        <v>-0.03518929158659896</v>
+      </c>
+      <c r="F47">
+        <v>-0.0235460974401176</v>
+      </c>
+      <c r="G47">
+        <v>0.05083905613527014</v>
+      </c>
+      <c r="H47">
+        <v>-0.02041216996314985</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01604714238867071</v>
+        <v>0.01671453866923408</v>
       </c>
       <c r="C48">
-        <v>0.009406413196732537</v>
+        <v>-0.0192709747052407</v>
       </c>
       <c r="D48">
-        <v>0.06875726222694105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0765412533536398</v>
+      </c>
+      <c r="E48">
+        <v>-0.05177951750248328</v>
+      </c>
+      <c r="F48">
+        <v>0.006220410373121587</v>
+      </c>
+      <c r="G48">
+        <v>0.006914578084737305</v>
+      </c>
+      <c r="H48">
+        <v>-0.0532804820365543</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07497540236411075</v>
+        <v>0.05858830970335086</v>
       </c>
       <c r="C50">
-        <v>0.06133831318178304</v>
+        <v>-0.06803914258269479</v>
       </c>
       <c r="D50">
-        <v>0.06063658979411997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05438538642729623</v>
+      </c>
+      <c r="E50">
+        <v>-0.03863099809557752</v>
+      </c>
+      <c r="F50">
+        <v>-0.04376326311834421</v>
+      </c>
+      <c r="G50">
+        <v>-0.01490592047041167</v>
+      </c>
+      <c r="H50">
+        <v>-0.04208779643123807</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.00878833780698542</v>
+        <v>0.007058776926941061</v>
       </c>
       <c r="C51">
-        <v>0.01481304385787757</v>
+        <v>-0.01708028047787424</v>
       </c>
       <c r="D51">
-        <v>0.08459675164527901</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0917067328752037</v>
+      </c>
+      <c r="E51">
+        <v>-0.02089719612033184</v>
+      </c>
+      <c r="F51">
+        <v>-0.001703934630973703</v>
+      </c>
+      <c r="G51">
+        <v>-0.006915283074862918</v>
+      </c>
+      <c r="H51">
+        <v>-0.0733492057831017</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08082833264181088</v>
+        <v>0.08657095298918867</v>
       </c>
       <c r="C53">
-        <v>0.08975634812951604</v>
+        <v>-0.1016467581354883</v>
       </c>
       <c r="D53">
-        <v>0.02710410963432693</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01185361759701692</v>
+      </c>
+      <c r="E53">
+        <v>-0.1036623910557107</v>
+      </c>
+      <c r="F53">
+        <v>-0.04850723112826173</v>
+      </c>
+      <c r="G53">
+        <v>0.08752806675739963</v>
+      </c>
+      <c r="H53">
+        <v>0.007553019483963122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03218368322042463</v>
+        <v>0.02645301558838555</v>
       </c>
       <c r="C54">
-        <v>0.03234859287058228</v>
+        <v>-0.03535144532286848</v>
       </c>
       <c r="D54">
-        <v>0.0908953590896404</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08935850309782424</v>
+      </c>
+      <c r="E54">
+        <v>-0.04116016914833601</v>
+      </c>
+      <c r="F54">
+        <v>0.01418770182439793</v>
+      </c>
+      <c r="G54">
+        <v>-0.01153835085714246</v>
+      </c>
+      <c r="H54">
+        <v>-0.1087940382173643</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08950785048128579</v>
+        <v>0.08530925563589938</v>
       </c>
       <c r="C55">
-        <v>0.064180475206026</v>
+        <v>-0.08027028171972292</v>
       </c>
       <c r="D55">
-        <v>-0.0008405885803845848</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009283774119991612</v>
+      </c>
+      <c r="E55">
+        <v>-0.05970826732186402</v>
+      </c>
+      <c r="F55">
+        <v>-0.04390333045100041</v>
+      </c>
+      <c r="G55">
+        <v>0.04175258269734414</v>
+      </c>
+      <c r="H55">
+        <v>0.01462117222226798</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.137219478545155</v>
+        <v>0.1308094329176431</v>
       </c>
       <c r="C56">
-        <v>0.1012769588167481</v>
+        <v>-0.1244283903581232</v>
       </c>
       <c r="D56">
-        <v>0.01201943644974649</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.005519089431725273</v>
+      </c>
+      <c r="E56">
+        <v>-0.0642967832578874</v>
+      </c>
+      <c r="F56">
+        <v>-0.03231011256605532</v>
+      </c>
+      <c r="G56">
+        <v>0.05358625827477116</v>
+      </c>
+      <c r="H56">
+        <v>0.001870987645373244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.02686962784969874</v>
+        <v>0.03062298358717171</v>
       </c>
       <c r="C58">
-        <v>-0.03030073462278154</v>
+        <v>-0.01630354944027595</v>
       </c>
       <c r="D58">
-        <v>0.3750487442951129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3818520617716638</v>
+      </c>
+      <c r="E58">
+        <v>-0.1781031192639544</v>
+      </c>
+      <c r="F58">
+        <v>-0.1509863894821486</v>
+      </c>
+      <c r="G58">
+        <v>-0.3484669370843534</v>
+      </c>
+      <c r="H58">
+        <v>0.4017681396848599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1390983397771005</v>
+        <v>0.1742567352890664</v>
       </c>
       <c r="C59">
-        <v>-0.1919921123033445</v>
+        <v>0.1710918494008041</v>
       </c>
       <c r="D59">
-        <v>0.02709942557143581</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05077125636615657</v>
+      </c>
+      <c r="E59">
+        <v>-0.01845494803332293</v>
+      </c>
+      <c r="F59">
+        <v>0.03940053958148745</v>
+      </c>
+      <c r="G59">
+        <v>-0.0007719050686144306</v>
+      </c>
+      <c r="H59">
+        <v>0.02432604287801802</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2541289866372345</v>
+        <v>0.2289807749843542</v>
       </c>
       <c r="C60">
-        <v>0.0600914383279723</v>
+        <v>-0.09843658561547816</v>
       </c>
       <c r="D60">
-        <v>0.1496118659053716</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1061877178381612</v>
+      </c>
+      <c r="E60">
+        <v>0.3713803810213754</v>
+      </c>
+      <c r="F60">
+        <v>-0.01735741812423792</v>
+      </c>
+      <c r="G60">
+        <v>0.04280174527713476</v>
+      </c>
+      <c r="H60">
+        <v>0.09576273263831644</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04585836924153423</v>
+        <v>0.04076257283418874</v>
       </c>
       <c r="C61">
-        <v>0.05151685190633557</v>
+        <v>-0.05948342504000736</v>
       </c>
       <c r="D61">
-        <v>0.1024405820056326</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09418565723324117</v>
+      </c>
+      <c r="E61">
+        <v>-0.002981260829559986</v>
+      </c>
+      <c r="F61">
+        <v>0.01609650316616438</v>
+      </c>
+      <c r="G61">
+        <v>0.01652737582513627</v>
+      </c>
+      <c r="H61">
+        <v>-0.07622396937666678</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01633740202279496</v>
+        <v>0.01435430465723098</v>
       </c>
       <c r="C63">
-        <v>0.01981742115332487</v>
+        <v>-0.03250656208854917</v>
       </c>
       <c r="D63">
-        <v>0.06259537987701824</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07003799536926837</v>
+      </c>
+      <c r="E63">
+        <v>-0.02853388424744667</v>
+      </c>
+      <c r="F63">
+        <v>-0.01864349387509495</v>
+      </c>
+      <c r="G63">
+        <v>-0.003558051113012347</v>
+      </c>
+      <c r="H63">
+        <v>-0.04396205348103868</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05827382082651007</v>
+        <v>0.05465146917430812</v>
       </c>
       <c r="C64">
-        <v>0.06163901805140243</v>
+        <v>-0.08049030356847847</v>
       </c>
       <c r="D64">
-        <v>0.06050513991986134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05521673923911419</v>
+      </c>
+      <c r="E64">
+        <v>-0.0267160653832167</v>
+      </c>
+      <c r="F64">
+        <v>0.01566563811099068</v>
+      </c>
+      <c r="G64">
+        <v>0.05281992232594661</v>
+      </c>
+      <c r="H64">
+        <v>-0.0423580270234934</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.05617606118773433</v>
+        <v>0.04831726077581944</v>
       </c>
       <c r="C65">
-        <v>0.002011338970452411</v>
+        <v>-0.02432243405816484</v>
       </c>
       <c r="D65">
-        <v>0.1088470729362746</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1149698045057745</v>
+      </c>
+      <c r="E65">
+        <v>0.00180124778189567</v>
+      </c>
+      <c r="F65">
+        <v>-0.01499190144064324</v>
+      </c>
+      <c r="G65">
+        <v>-0.03411931127014324</v>
+      </c>
+      <c r="H65">
+        <v>0.02509081723649395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04489375800239546</v>
+        <v>0.04084921204853971</v>
       </c>
       <c r="C66">
-        <v>0.0537936127564722</v>
+        <v>-0.07171710506703337</v>
       </c>
       <c r="D66">
-        <v>0.114992949858155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1317137338398797</v>
+      </c>
+      <c r="E66">
+        <v>-0.01163282224546318</v>
+      </c>
+      <c r="F66">
+        <v>0.01031255003692756</v>
+      </c>
+      <c r="G66">
+        <v>-0.01238115310685666</v>
+      </c>
+      <c r="H66">
+        <v>-0.05438965766298458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04351634844917954</v>
+        <v>0.0374678295824265</v>
       </c>
       <c r="C67">
-        <v>0.02640470100748801</v>
+        <v>-0.02821748726377315</v>
       </c>
       <c r="D67">
-        <v>0.02308148327084377</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01874100292413395</v>
+      </c>
+      <c r="E67">
+        <v>-0.01782111153253554</v>
+      </c>
+      <c r="F67">
+        <v>0.0007948532057459178</v>
+      </c>
+      <c r="G67">
+        <v>-0.0310472437548598</v>
+      </c>
+      <c r="H67">
+        <v>-0.03961183266376932</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1612837572426397</v>
+        <v>0.1931995832558438</v>
       </c>
       <c r="C68">
-        <v>-0.2483818975808862</v>
+        <v>0.203734852058134</v>
       </c>
       <c r="D68">
-        <v>-0.02390367274419717</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01010243936808368</v>
+      </c>
+      <c r="E68">
+        <v>-0.04949643695454627</v>
+      </c>
+      <c r="F68">
+        <v>-0.03217962920555488</v>
+      </c>
+      <c r="G68">
+        <v>-0.01175871016694554</v>
+      </c>
+      <c r="H68">
+        <v>0.005789704790591344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08601571906025987</v>
+        <v>0.07693838691727545</v>
       </c>
       <c r="C69">
-        <v>0.08106797211640832</v>
+        <v>-0.09795549799686294</v>
       </c>
       <c r="D69">
-        <v>0.05715424895051564</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04680379912713441</v>
+      </c>
+      <c r="E69">
+        <v>-0.02529169392760103</v>
+      </c>
+      <c r="F69">
+        <v>-0.004156214253455249</v>
+      </c>
+      <c r="G69">
+        <v>0.03501262770790919</v>
+      </c>
+      <c r="H69">
+        <v>-0.02998554495950228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1382334774405819</v>
+        <v>0.1782972050273612</v>
       </c>
       <c r="C71">
-        <v>-0.2451941217760826</v>
+        <v>0.2149968194820138</v>
       </c>
       <c r="D71">
-        <v>0.0143529973999313</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03378030314921311</v>
+      </c>
+      <c r="E71">
+        <v>-0.05265453528872092</v>
+      </c>
+      <c r="F71">
+        <v>-0.03707442966263699</v>
+      </c>
+      <c r="G71">
+        <v>0.029232591985818</v>
+      </c>
+      <c r="H71">
+        <v>-0.0260397125352996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09735680780897794</v>
+        <v>0.09887163516817214</v>
       </c>
       <c r="C72">
-        <v>0.03749288131566597</v>
+        <v>-0.06679883871168871</v>
       </c>
       <c r="D72">
-        <v>0.08967026752708052</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09592357857342713</v>
+      </c>
+      <c r="E72">
+        <v>0.03803876199368954</v>
+      </c>
+      <c r="F72">
+        <v>-0.0352168135833423</v>
+      </c>
+      <c r="G72">
+        <v>0.02765703596050794</v>
+      </c>
+      <c r="H72">
+        <v>-0.02306673468530273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2845016915522282</v>
+        <v>0.2474140647192509</v>
       </c>
       <c r="C73">
-        <v>0.008893144333257464</v>
+        <v>-0.07976681910589518</v>
       </c>
       <c r="D73">
-        <v>0.2316548916208607</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1637367355240578</v>
+      </c>
+      <c r="E73">
+        <v>0.6713125611544797</v>
+      </c>
+      <c r="F73">
+        <v>-0.005024721528963516</v>
+      </c>
+      <c r="G73">
+        <v>-0.004632809698161881</v>
+      </c>
+      <c r="H73">
+        <v>0.1425899687510839</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1082925868971569</v>
+        <v>0.09936564652702001</v>
       </c>
       <c r="C74">
-        <v>0.07127046070051622</v>
+        <v>-0.09041378806072678</v>
       </c>
       <c r="D74">
-        <v>0.02478921324398347</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.001738542398845815</v>
+      </c>
+      <c r="E74">
+        <v>-0.08234187353836125</v>
+      </c>
+      <c r="F74">
+        <v>-0.06059340789875652</v>
+      </c>
+      <c r="G74">
+        <v>0.05937699885804182</v>
+      </c>
+      <c r="H74">
+        <v>0.03685381222226136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2422648545279623</v>
+        <v>0.2298109934506064</v>
       </c>
       <c r="C75">
-        <v>0.1283179761511221</v>
+        <v>-0.1660913283049888</v>
       </c>
       <c r="D75">
-        <v>-0.04531159469887275</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.08987753820230089</v>
+      </c>
+      <c r="E75">
+        <v>-0.1099043228629481</v>
+      </c>
+      <c r="F75">
+        <v>-0.008708467456681846</v>
+      </c>
+      <c r="G75">
+        <v>0.06155977698684463</v>
+      </c>
+      <c r="H75">
+        <v>0.09575968514057749</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.134734107431824</v>
+        <v>0.126751625416535</v>
       </c>
       <c r="C76">
-        <v>0.08632638138842251</v>
+        <v>-0.112931812247474</v>
       </c>
       <c r="D76">
-        <v>0.006635595556298723</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01348476819717861</v>
+      </c>
+      <c r="E76">
+        <v>-0.116328784399902</v>
+      </c>
+      <c r="F76">
+        <v>-0.02870178828137583</v>
+      </c>
+      <c r="G76">
+        <v>0.05196035198354104</v>
+      </c>
+      <c r="H76">
+        <v>0.001658480780092824</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.06423134546312917</v>
+        <v>0.06095382770044632</v>
       </c>
       <c r="C77">
-        <v>0.06109555744012312</v>
+        <v>-0.06889864525081339</v>
       </c>
       <c r="D77">
-        <v>0.0605516022161412</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1285144071502516</v>
+      </c>
+      <c r="E77">
+        <v>-0.2091749860920702</v>
+      </c>
+      <c r="F77">
+        <v>0.2325181820547671</v>
+      </c>
+      <c r="G77">
+        <v>-0.1363298827077144</v>
+      </c>
+      <c r="H77">
+        <v>0.1831737191358407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04184728913400965</v>
+        <v>0.04135587774762683</v>
       </c>
       <c r="C78">
-        <v>0.05143500303422324</v>
+        <v>-0.06397590969263302</v>
       </c>
       <c r="D78">
-        <v>0.1178186104252293</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1313278447482164</v>
+      </c>
+      <c r="E78">
+        <v>-0.01286143861975029</v>
+      </c>
+      <c r="F78">
+        <v>-0.01256235894996263</v>
+      </c>
+      <c r="G78">
+        <v>0.0259522540423964</v>
+      </c>
+      <c r="H78">
+        <v>-0.02731088968348945</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.0008913678216124869</v>
+        <v>0.04352620141699536</v>
       </c>
       <c r="C79">
-        <v>6.810989722449043e-05</v>
+        <v>-0.0878517215551651</v>
       </c>
       <c r="D79">
-        <v>0.0194311987120913</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02062470182956452</v>
+      </c>
+      <c r="E79">
+        <v>-0.1894594444877876</v>
+      </c>
+      <c r="F79">
+        <v>-0.1303750704798539</v>
+      </c>
+      <c r="G79">
+        <v>0.618901956489872</v>
+      </c>
+      <c r="H79">
+        <v>0.5006127882167837</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03043626957293464</v>
+        <v>0.02425596884941656</v>
       </c>
       <c r="C80">
-        <v>0.02729420774178548</v>
+        <v>-0.04233226958871268</v>
       </c>
       <c r="D80">
-        <v>0.02860597057634216</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03553800608449639</v>
+      </c>
+      <c r="E80">
+        <v>-0.02368717700955809</v>
+      </c>
+      <c r="F80">
+        <v>0.03216791825951038</v>
+      </c>
+      <c r="G80">
+        <v>-0.05364213384324504</v>
+      </c>
+      <c r="H80">
+        <v>-0.01586394710849584</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.146694413237582</v>
+        <v>0.1297421051799101</v>
       </c>
       <c r="C81">
-        <v>0.09260182596620262</v>
+        <v>-0.1176513453285292</v>
       </c>
       <c r="D81">
-        <v>-0.04209844849324984</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.06238174232198489</v>
+      </c>
+      <c r="E81">
+        <v>-0.1241919682846017</v>
+      </c>
+      <c r="F81">
+        <v>-0.02163641750369118</v>
+      </c>
+      <c r="G81">
+        <v>0.04391484434894328</v>
+      </c>
+      <c r="H81">
+        <v>0.02191007224287872</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.300169979012342</v>
+        <v>0.2531712882479381</v>
       </c>
       <c r="C82">
-        <v>0.2654802015163064</v>
+        <v>-0.2549768015976693</v>
       </c>
       <c r="D82">
-        <v>-0.223686772814102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2190386771796506</v>
+      </c>
+      <c r="E82">
+        <v>0.004848951131397571</v>
+      </c>
+      <c r="F82">
+        <v>-0.04280116200226513</v>
+      </c>
+      <c r="G82">
+        <v>0.2038810901177581</v>
+      </c>
+      <c r="H82">
+        <v>-0.4835913400932826</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02848831461225006</v>
+        <v>0.02200315440271211</v>
       </c>
       <c r="C83">
-        <v>0.04574422946626745</v>
+        <v>-0.05222608793857352</v>
       </c>
       <c r="D83">
-        <v>0.04752209135498361</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0511157876904393</v>
+      </c>
+      <c r="E83">
+        <v>-0.01002212065808514</v>
+      </c>
+      <c r="F83">
+        <v>0.02108083758861798</v>
+      </c>
+      <c r="G83">
+        <v>-0.004875243540701102</v>
+      </c>
+      <c r="H83">
+        <v>-0.02924724433310091</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002895309500780608</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.005039474725033377</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01724307110866288</v>
+      </c>
+      <c r="E84">
+        <v>-0.01500105871636452</v>
+      </c>
+      <c r="F84">
+        <v>-0.00772514842449887</v>
+      </c>
+      <c r="G84">
+        <v>-0.01090028144617562</v>
+      </c>
+      <c r="H84">
+        <v>0.0003698657838562256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1785848407578779</v>
+        <v>0.1591065964987673</v>
       </c>
       <c r="C85">
-        <v>0.09402809028751731</v>
+        <v>-0.1338173635891785</v>
       </c>
       <c r="D85">
-        <v>-0.03241858426548038</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.06595126267103463</v>
+      </c>
+      <c r="E85">
+        <v>-0.0526116073255563</v>
+      </c>
+      <c r="F85">
+        <v>-0.04241990505003353</v>
+      </c>
+      <c r="G85">
+        <v>0.07999477002434469</v>
+      </c>
+      <c r="H85">
+        <v>0.1039658736638656</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0165518093034646</v>
+        <v>0.01845177243102503</v>
       </c>
       <c r="C86">
-        <v>0.02106782908860645</v>
+        <v>-0.02183091721135027</v>
       </c>
       <c r="D86">
-        <v>0.1386132587608752</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1262268083835388</v>
+      </c>
+      <c r="E86">
+        <v>-0.0102701725751923</v>
+      </c>
+      <c r="F86">
+        <v>0.008212913542851233</v>
+      </c>
+      <c r="G86">
+        <v>0.01772781690392175</v>
+      </c>
+      <c r="H86">
+        <v>-0.07094726307958379</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02735702346761571</v>
+        <v>0.03311526714539265</v>
       </c>
       <c r="C87">
-        <v>0.0004376116739862776</v>
+        <v>-0.02519851427676029</v>
       </c>
       <c r="D87">
-        <v>0.09935408180173388</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1352776136287594</v>
+      </c>
+      <c r="E87">
+        <v>-0.07986757000314831</v>
+      </c>
+      <c r="F87">
+        <v>0.008518201267156371</v>
+      </c>
+      <c r="G87">
+        <v>-0.01537635827572263</v>
+      </c>
+      <c r="H87">
+        <v>-0.02637496331085673</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07925880765880092</v>
+        <v>0.07019861643491512</v>
       </c>
       <c r="C88">
-        <v>0.04187564830805293</v>
+        <v>-0.05767227647627918</v>
       </c>
       <c r="D88">
-        <v>0.03874587084062184</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01981853898015631</v>
+      </c>
+      <c r="E88">
+        <v>-0.0187412962684884</v>
+      </c>
+      <c r="F88">
+        <v>-0.005274946583534364</v>
+      </c>
+      <c r="G88">
+        <v>0.009445375472290884</v>
+      </c>
+      <c r="H88">
+        <v>-0.03952926247568741</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2028094660113066</v>
+        <v>0.273284515973988</v>
       </c>
       <c r="C89">
-        <v>-0.3775343845449977</v>
+        <v>0.3564445201203704</v>
       </c>
       <c r="D89">
-        <v>-0.03454498327564639</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.002583916853157866</v>
+      </c>
+      <c r="E89">
+        <v>-0.05403651320679095</v>
+      </c>
+      <c r="F89">
+        <v>0.05262756101542454</v>
+      </c>
+      <c r="G89">
+        <v>0.04083452739340009</v>
+      </c>
+      <c r="H89">
+        <v>-0.05648965310770956</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1981538623637505</v>
+        <v>0.2384871875469237</v>
       </c>
       <c r="C90">
-        <v>-0.2977093966887298</v>
+        <v>0.2575692451033872</v>
       </c>
       <c r="D90">
-        <v>-0.0365119112032474</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01415392494694168</v>
+      </c>
+      <c r="E90">
+        <v>-0.04384839430730871</v>
+      </c>
+      <c r="F90">
+        <v>-0.01272805651857405</v>
+      </c>
+      <c r="G90">
+        <v>-0.04259673352237953</v>
+      </c>
+      <c r="H90">
+        <v>-0.05039336593752686</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1808518855649305</v>
+        <v>0.162082298422955</v>
       </c>
       <c r="C91">
-        <v>0.1306705286671778</v>
+        <v>-0.1575262899902324</v>
       </c>
       <c r="D91">
-        <v>-0.05993290228731585</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08338555887798318</v>
+      </c>
+      <c r="E91">
+        <v>-0.1073713446421941</v>
+      </c>
+      <c r="F91">
+        <v>-0.03254770691802478</v>
+      </c>
+      <c r="G91">
+        <v>0.0844154798769115</v>
+      </c>
+      <c r="H91">
+        <v>0.09672233805232275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1670675771726934</v>
+        <v>0.2172317298702449</v>
       </c>
       <c r="C92">
-        <v>-0.2892814647812824</v>
+        <v>0.2731948068981336</v>
       </c>
       <c r="D92">
-        <v>0.009149330108527491</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02702996826218403</v>
+      </c>
+      <c r="E92">
+        <v>-0.0905409494470667</v>
+      </c>
+      <c r="F92">
+        <v>0.01224086940802662</v>
+      </c>
+      <c r="G92">
+        <v>-0.005595837633691387</v>
+      </c>
+      <c r="H92">
+        <v>-0.04390440640283004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2312651056250039</v>
+        <v>0.2649865637133164</v>
       </c>
       <c r="C93">
-        <v>-0.3205994674685164</v>
+        <v>0.2722637508575858</v>
       </c>
       <c r="D93">
-        <v>-0.01192370767582468</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.005325696686272505</v>
+      </c>
+      <c r="E93">
+        <v>-0.01869944367109985</v>
+      </c>
+      <c r="F93">
+        <v>-0.02351631489009923</v>
+      </c>
+      <c r="G93">
+        <v>-0.002837985717780244</v>
+      </c>
+      <c r="H93">
+        <v>0.006657617770674085</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3966271782464681</v>
+        <v>0.3439192953735612</v>
       </c>
       <c r="C94">
-        <v>0.2339389633883434</v>
+        <v>-0.2664909525098884</v>
       </c>
       <c r="D94">
-        <v>-0.4603673181279738</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4328206168923012</v>
+      </c>
+      <c r="E94">
+        <v>-0.08623487085166602</v>
+      </c>
+      <c r="F94">
+        <v>0.02614551036150697</v>
+      </c>
+      <c r="G94">
+        <v>-0.5664346271126971</v>
+      </c>
+      <c r="H94">
+        <v>0.1417009937507017</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.0782526327760307</v>
+        <v>0.06803988055642136</v>
       </c>
       <c r="C95">
-        <v>0.07365341230768904</v>
+        <v>-0.06515175289420336</v>
       </c>
       <c r="D95">
-        <v>0.1349505096535316</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08807077313915132</v>
+      </c>
+      <c r="E95">
+        <v>-0.02328943596555478</v>
+      </c>
+      <c r="F95">
+        <v>0.9186010037635085</v>
+      </c>
+      <c r="G95">
+        <v>0.09569493132232633</v>
+      </c>
+      <c r="H95">
+        <v>0.07660917324278352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.176857576756319</v>
+        <v>0.1634924505683095</v>
       </c>
       <c r="C98">
-        <v>0.02029726629399274</v>
+        <v>-0.06039568330271138</v>
       </c>
       <c r="D98">
-        <v>0.1431612625088861</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1259470255945075</v>
+      </c>
+      <c r="E98">
+        <v>0.3176141173455699</v>
+      </c>
+      <c r="F98">
+        <v>-0.04512143672959695</v>
+      </c>
+      <c r="G98">
+        <v>0.05319155828844741</v>
+      </c>
+      <c r="H98">
+        <v>0.0434299245532932</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005692476912730807</v>
+        <v>0.006221396479767338</v>
       </c>
       <c r="C101">
-        <v>0.01855966158998343</v>
+        <v>-0.0216908640022678</v>
       </c>
       <c r="D101">
-        <v>0.06940286273821031</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0819795138833178</v>
+      </c>
+      <c r="E101">
+        <v>-0.03308921632176413</v>
+      </c>
+      <c r="F101">
+        <v>-0.004506044361223593</v>
+      </c>
+      <c r="G101">
+        <v>0.0134527258841293</v>
+      </c>
+      <c r="H101">
+        <v>-0.09615909462315181</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1246938204576138</v>
+        <v>0.1082723830341056</v>
       </c>
       <c r="C102">
-        <v>0.1134553133821544</v>
+        <v>-0.1197436583410375</v>
       </c>
       <c r="D102">
-        <v>-0.04082005509227045</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05457030850703438</v>
+      </c>
+      <c r="E102">
+        <v>-0.03805754087339059</v>
+      </c>
+      <c r="F102">
+        <v>0.01999041675735095</v>
+      </c>
+      <c r="G102">
+        <v>0.0478403058748865</v>
+      </c>
+      <c r="H102">
+        <v>-0.03226143251053872</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
